--- a/simulation/python/data/Book1_copy.xlsx
+++ b/simulation/python/data/Book1_copy.xlsx
@@ -26,7 +26,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -48,12 +48,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +97,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,10 +121,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -296,6 +290,63 @@
         <v>25</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <f aca="false">275+12.5+25</f>
+        <v>312.5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">125+12.5</f>
+        <v>137.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <f aca="false">275+12.5+50</f>
+        <v>337.5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">125+12.5</f>
+        <v>137.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <f aca="false">275+12.5+75</f>
+        <v>362.5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">125+12.5</f>
+        <v>137.5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -323,7 +374,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
